--- a/3_Component_Results/CONSTR/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.1286665469352575</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.584314119446431</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11.86673044746297</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.444812106263994</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.475993634475042</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.346706913156942</v>
+        <v>0.208472532147568</v>
       </c>
       <c r="C3">
-        <v>0.5430391266232254</v>
+        <v>1.905008350356748</v>
       </c>
       <c r="D3">
-        <v>1.579940228772914</v>
+        <v>5.6589047777894</v>
       </c>
       <c r="E3">
-        <v>1.256956733055245</v>
+        <v>2.378845261421894</v>
       </c>
       <c r="F3">
-        <v>1.220216880740854</v>
+        <v>2.393272416744899</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4891530605296467</v>
+        <v>0.3820242035387909</v>
       </c>
       <c r="C4">
-        <v>1.259068871597759</v>
+        <v>1.902010132220234</v>
       </c>
       <c r="D4">
-        <v>3.763827450431316</v>
+        <v>5.867547615856401</v>
       </c>
       <c r="E4">
-        <v>1.940058620359528</v>
+        <v>2.422302131414742</v>
       </c>
       <c r="F4">
-        <v>1.896440471796344</v>
+        <v>2.416272454685605</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4561060283817828</v>
+        <v>0.191239345277837</v>
       </c>
       <c r="C5">
-        <v>0.8691598303548365</v>
+        <v>1.716821400939533</v>
       </c>
       <c r="D5">
-        <v>2.099055977373835</v>
+        <v>5.499592484960565</v>
       </c>
       <c r="E5">
-        <v>1.448811919254475</v>
+        <v>2.345120995803962</v>
       </c>
       <c r="F5">
-        <v>1.389395403165033</v>
+        <v>2.36634644499125</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4089433569549555</v>
+        <v>0.2671928775352811</v>
       </c>
       <c r="C6">
-        <v>1.101515489242726</v>
+        <v>1.741437505328719</v>
       </c>
       <c r="D6">
-        <v>2.743440560064961</v>
+        <v>5.032127257509086</v>
       </c>
       <c r="E6">
-        <v>1.656333468859747</v>
+        <v>2.243240347691055</v>
       </c>
       <c r="F6">
-        <v>1.622041547606726</v>
+        <v>2.264087689223547</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4575830924809641</v>
+        <v>0.3126204252219001</v>
       </c>
       <c r="C7">
-        <v>1.018382211110114</v>
+        <v>1.694986524670226</v>
       </c>
       <c r="D7">
-        <v>2.535534509163271</v>
+        <v>4.73978801325031</v>
       </c>
       <c r="E7">
-        <v>1.592336179694247</v>
+        <v>2.177105420793929</v>
       </c>
       <c r="F7">
-        <v>1.545110596304851</v>
+        <v>2.192679688080215</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5375000650933984</v>
+        <v>0.3719975688557745</v>
       </c>
       <c r="C8">
-        <v>0.9690265278726212</v>
+        <v>1.867752137679124</v>
       </c>
       <c r="D8">
-        <v>2.381091432077053</v>
+        <v>5.380359802164317</v>
       </c>
       <c r="E8">
-        <v>1.54307855667722</v>
+        <v>2.319560260515841</v>
       </c>
       <c r="F8">
-        <v>1.465854923132559</v>
+        <v>2.333150688324054</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.9530237054802578</v>
+        <v>0.4130801636093303</v>
       </c>
       <c r="C9">
-        <v>1.131993192080363</v>
+        <v>2.085153282719833</v>
       </c>
       <c r="D9">
-        <v>3.219764909447798</v>
+        <v>6.310345893095409</v>
       </c>
       <c r="E9">
-        <v>1.794370337875601</v>
+        <v>2.512040185406159</v>
       </c>
       <c r="F9">
-        <v>1.557910864764894</v>
+        <v>2.545742663513931</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.541357360531081</v>
+        <v>1.987269086558114</v>
       </c>
       <c r="C10">
-        <v>0.7903426455187436</v>
+        <v>1.995519100223671</v>
       </c>
       <c r="D10">
-        <v>0.8747839418936688</v>
+        <v>6.088527956227622</v>
       </c>
       <c r="E10">
-        <v>0.9352988516477868</v>
+        <v>2.46749426670613</v>
       </c>
       <c r="F10">
-        <v>0.7914945017202905</v>
+        <v>1.527668288782175</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.7033621104908662</v>
+        <v>1.658904638620646</v>
       </c>
       <c r="C11">
-        <v>0.8247366046038167</v>
+        <v>1.679380840373142</v>
       </c>
       <c r="D11">
-        <v>1.023412291882237</v>
+        <v>3.778169217003525</v>
       </c>
       <c r="E11">
-        <v>1.011638419536465</v>
+        <v>1.943751325916853</v>
       </c>
       <c r="F11">
-        <v>0.812937600163807</v>
+        <v>1.132588085407946</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/CONSTR/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1286665469352575</v>
+        <v>0.07967938146308559</v>
       </c>
       <c r="C2">
-        <v>2.584314119446431</v>
+        <v>0.8019381115720245</v>
       </c>
       <c r="D2">
-        <v>11.86673044746297</v>
+        <v>1.602517945319166</v>
       </c>
       <c r="E2">
-        <v>3.444812106263994</v>
+        <v>1.265905978072292</v>
       </c>
       <c r="F2">
-        <v>3.475993634475042</v>
+        <v>1.275721982108824</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.208472532147568</v>
+        <v>0.1996680100171121</v>
       </c>
       <c r="C3">
-        <v>1.905008350356748</v>
+        <v>1.350499864034121</v>
       </c>
       <c r="D3">
-        <v>5.6589047777894</v>
+        <v>3.617881843527005</v>
       </c>
       <c r="E3">
-        <v>2.378845261421894</v>
+        <v>1.902073038431228</v>
       </c>
       <c r="F3">
-        <v>2.393272416744899</v>
+        <v>1.910386039492769</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3820242035387909</v>
+        <v>0.6016847796089962</v>
       </c>
       <c r="C4">
-        <v>1.902010132220234</v>
+        <v>1.493953804328142</v>
       </c>
       <c r="D4">
-        <v>5.867547615856401</v>
+        <v>4.491473340817588</v>
       </c>
       <c r="E4">
-        <v>2.422302131414742</v>
+        <v>2.119309637787171</v>
       </c>
       <c r="F4">
-        <v>2.416272454685605</v>
+        <v>2.052735548343508</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.191239345277837</v>
+        <v>0.3601685393389483</v>
       </c>
       <c r="C5">
-        <v>1.716821400939533</v>
+        <v>1.499852406935977</v>
       </c>
       <c r="D5">
-        <v>5.499592484960565</v>
+        <v>4.026777908913376</v>
       </c>
       <c r="E5">
-        <v>2.345120995803962</v>
+        <v>2.006683310568306</v>
       </c>
       <c r="F5">
-        <v>2.36634644499125</v>
+        <v>1.994553887448934</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2671928775352811</v>
+        <v>0.554109530473832</v>
       </c>
       <c r="C6">
-        <v>1.741437505328719</v>
+        <v>1.40221327316157</v>
       </c>
       <c r="D6">
-        <v>5.032127257509086</v>
+        <v>3.723570466260433</v>
       </c>
       <c r="E6">
-        <v>2.243240347691055</v>
+        <v>1.929655530466625</v>
       </c>
       <c r="F6">
-        <v>2.264087689223547</v>
+        <v>1.867946810805509</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3126204252219001</v>
+        <v>0.3968503597739336</v>
       </c>
       <c r="C7">
-        <v>1.694986524670226</v>
+        <v>1.194979168351206</v>
       </c>
       <c r="D7">
-        <v>4.73978801325031</v>
+        <v>2.489467468001566</v>
       </c>
       <c r="E7">
-        <v>2.177105420793929</v>
+        <v>1.5778046355622</v>
       </c>
       <c r="F7">
-        <v>2.192679688080215</v>
+        <v>1.547043982108814</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3719975688557745</v>
+        <v>0.5649144946704114</v>
       </c>
       <c r="C8">
-        <v>1.867752137679124</v>
+        <v>1.22464266767186</v>
       </c>
       <c r="D8">
-        <v>5.380359802164317</v>
+        <v>2.755048971642472</v>
       </c>
       <c r="E8">
-        <v>2.319560260515841</v>
+        <v>1.659834019305085</v>
       </c>
       <c r="F8">
-        <v>2.333150688324054</v>
+        <v>1.581694116082434</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4130801636093303</v>
+        <v>0.884415467835616</v>
       </c>
       <c r="C9">
-        <v>2.085153282719833</v>
+        <v>1.104993751378739</v>
       </c>
       <c r="D9">
-        <v>6.310345893095409</v>
+        <v>2.323198242346433</v>
       </c>
       <c r="E9">
-        <v>2.512040185406159</v>
+        <v>1.524204134079957</v>
       </c>
       <c r="F9">
-        <v>2.545742663513931</v>
+        <v>1.27202904791106</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1.987269086558114</v>
+        <v>0.5881942522924533</v>
       </c>
       <c r="C10">
-        <v>1.995519100223671</v>
+        <v>0.8478029123914703</v>
       </c>
       <c r="D10">
-        <v>6.088527956227622</v>
+        <v>0.9561329667000577</v>
       </c>
       <c r="E10">
-        <v>2.46749426670613</v>
+        <v>0.9778205186536318</v>
       </c>
       <c r="F10">
-        <v>1.527668288782175</v>
+        <v>0.810614526421041</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1.658904638620646</v>
+        <v>0.7033621104908662</v>
       </c>
       <c r="C11">
-        <v>1.679380840373142</v>
+        <v>0.8247366046038167</v>
       </c>
       <c r="D11">
-        <v>3.778169217003525</v>
+        <v>1.023412291882237</v>
       </c>
       <c r="E11">
-        <v>1.943751325916853</v>
+        <v>1.011638419536465</v>
       </c>
       <c r="F11">
-        <v>1.132588085407946</v>
+        <v>0.812937600163807</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/CONSTR/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.07967938146308559</v>
+        <v>-0.4597372887444514</v>
       </c>
       <c r="C2">
-        <v>0.8019381115720245</v>
+        <v>1.210904996505696</v>
       </c>
       <c r="D2">
-        <v>1.602517945319166</v>
+        <v>3.311420010150167</v>
       </c>
       <c r="E2">
-        <v>1.265905978072292</v>
+        <v>1.819730752103224</v>
       </c>
       <c r="F2">
-        <v>1.275721982108824</v>
+        <v>1.777877149229536</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1996680100171121</v>
+        <v>-0.04675979754840079</v>
       </c>
       <c r="C3">
-        <v>1.350499864034121</v>
+        <v>0.7074616532720648</v>
       </c>
       <c r="D3">
-        <v>3.617881843527005</v>
+        <v>0.9164384811094498</v>
       </c>
       <c r="E3">
-        <v>1.902073038431228</v>
+        <v>0.9573079343186548</v>
       </c>
       <c r="F3">
-        <v>1.910386039492769</v>
+        <v>0.9654939214176854</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6016847796089962</v>
+        <v>0.006485713873333744</v>
       </c>
       <c r="C4">
-        <v>1.493953804328142</v>
+        <v>0.497881186328243</v>
       </c>
       <c r="D4">
-        <v>4.491473340817588</v>
+        <v>0.4960201252898111</v>
       </c>
       <c r="E4">
-        <v>2.119309637787171</v>
+        <v>0.7042869623170737</v>
       </c>
       <c r="F4">
-        <v>2.052735548343508</v>
+        <v>0.7111280621808957</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3601685393389483</v>
+        <v>0.03176566035528378</v>
       </c>
       <c r="C5">
-        <v>1.499852406935977</v>
+        <v>0.2909745237469874</v>
       </c>
       <c r="D5">
-        <v>4.026777908913376</v>
+        <v>0.2571025967964201</v>
       </c>
       <c r="E5">
-        <v>2.006683310568306</v>
+        <v>0.5070528540462227</v>
       </c>
       <c r="F5">
-        <v>1.994553887448934</v>
+        <v>0.5109941110931895</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.554109530473832</v>
+        <v>0.01672531232145803</v>
       </c>
       <c r="C6">
-        <v>1.40221327316157</v>
+        <v>0.2221957263397209</v>
       </c>
       <c r="D6">
-        <v>3.723570466260433</v>
+        <v>0.1429203332499772</v>
       </c>
       <c r="E6">
-        <v>1.929655530466625</v>
+        <v>0.3780480567996313</v>
       </c>
       <c r="F6">
-        <v>1.867946810805509</v>
+        <v>0.3813626510713813</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3968503597739336</v>
+        <v>-0.01110226880299724</v>
       </c>
       <c r="C7">
-        <v>1.194979168351206</v>
+        <v>0.1303062018858163</v>
       </c>
       <c r="D7">
-        <v>2.489467468001566</v>
+        <v>0.04794210158757951</v>
       </c>
       <c r="E7">
-        <v>1.5778046355622</v>
+        <v>0.2189568486884562</v>
       </c>
       <c r="F7">
-        <v>1.547043982108814</v>
+        <v>0.2212033166337546</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5649144946704114</v>
+        <v>-0.01240700391130773</v>
       </c>
       <c r="C8">
-        <v>1.22464266767186</v>
+        <v>0.08728838184242059</v>
       </c>
       <c r="D8">
-        <v>2.755048971642472</v>
+        <v>0.02848284151107333</v>
       </c>
       <c r="E8">
-        <v>1.659834019305085</v>
+        <v>0.1687686034518071</v>
       </c>
       <c r="F8">
-        <v>1.581694116082434</v>
+        <v>0.1702578032675945</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.884415467835616</v>
+        <v>-0.01213854604790917</v>
       </c>
       <c r="C9">
-        <v>1.104993751378739</v>
+        <v>0.06507916646756993</v>
       </c>
       <c r="D9">
-        <v>2.323198242346433</v>
+        <v>0.009857748084655803</v>
       </c>
       <c r="E9">
-        <v>1.524204134079957</v>
+        <v>0.09928619281982667</v>
       </c>
       <c r="F9">
-        <v>1.27202904791106</v>
+        <v>0.1004928850012703</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5881942522924533</v>
+        <v>-0.01732080477741248</v>
       </c>
       <c r="C10">
-        <v>0.8478029123914703</v>
+        <v>0.02664954859114724</v>
       </c>
       <c r="D10">
-        <v>0.9561329667000577</v>
+        <v>0.002677662977693536</v>
       </c>
       <c r="E10">
-        <v>0.9778205186536318</v>
+        <v>0.05174613973711988</v>
       </c>
       <c r="F10">
-        <v>0.810614526421041</v>
+        <v>0.05017484053845725</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.7033621104908662</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.8247366046038167</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1.023412291882237</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.011638419536465</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.812937600163807</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.4597372887444514</v>
+        <v>-0.02851397337148708</v>
       </c>
       <c r="C2">
-        <v>1.210904996505696</v>
+        <v>1.487398177008028</v>
       </c>
       <c r="D2">
-        <v>3.311420010150167</v>
+        <v>3.318917335035293</v>
       </c>
       <c r="E2">
-        <v>1.819730752103224</v>
+        <v>1.821789596807297</v>
       </c>
       <c r="F2">
-        <v>1.777877149229536</v>
+        <v>1.83969192369946</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04675979754840079</v>
+        <v>0.08547875753704889</v>
       </c>
       <c r="C3">
-        <v>0.7074616532720648</v>
+        <v>1.81008304745325</v>
       </c>
       <c r="D3">
-        <v>0.9164384811094498</v>
+        <v>5.250498484789946</v>
       </c>
       <c r="E3">
-        <v>0.9573079343186548</v>
+        <v>2.291396623195109</v>
       </c>
       <c r="F3">
-        <v>0.9654939214176854</v>
+        <v>2.313049022923821</v>
       </c>
       <c r="G3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.006485713873333744</v>
+        <v>0.4939789650732916</v>
       </c>
       <c r="C4">
-        <v>0.497881186328243</v>
+        <v>1.887039932152993</v>
       </c>
       <c r="D4">
-        <v>0.4960201252898111</v>
+        <v>6.340229206786162</v>
       </c>
       <c r="E4">
-        <v>0.7042869623170737</v>
+        <v>2.517981176813314</v>
       </c>
       <c r="F4">
-        <v>0.7111280621808957</v>
+        <v>2.494637939050945</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.03176566035528378</v>
+        <v>0.2451459353463975</v>
       </c>
       <c r="C5">
-        <v>0.2909745237469874</v>
+        <v>1.858170400153691</v>
       </c>
       <c r="D5">
-        <v>0.2571025967964201</v>
+        <v>5.548157995631708</v>
       </c>
       <c r="E5">
-        <v>0.5070528540462227</v>
+        <v>2.355452821780073</v>
       </c>
       <c r="F5">
-        <v>0.5109941110931895</v>
+        <v>2.367451949089824</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01672531232145803</v>
+        <v>0.4386977934359605</v>
       </c>
       <c r="C6">
-        <v>0.2221957263397209</v>
+        <v>1.706409057465927</v>
       </c>
       <c r="D6">
-        <v>0.1429203332499772</v>
+        <v>4.971657831094963</v>
       </c>
       <c r="E6">
-        <v>0.3780480567996313</v>
+        <v>2.229721469398132</v>
       </c>
       <c r="F6">
-        <v>0.3813626510713813</v>
+        <v>2.209773240506429</v>
       </c>
       <c r="G6">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01110226880299724</v>
+        <v>0.2428816792506087</v>
       </c>
       <c r="C7">
-        <v>0.1303062018858163</v>
+        <v>1.58716742716687</v>
       </c>
       <c r="D7">
-        <v>0.04794210158757951</v>
+        <v>4.151381641064656</v>
       </c>
       <c r="E7">
-        <v>0.2189568486884562</v>
+        <v>2.037493960988512</v>
       </c>
       <c r="F7">
-        <v>0.2212033166337546</v>
+        <v>2.05012079391029</v>
       </c>
       <c r="G7">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01240700391130773</v>
+        <v>0.4103070901050488</v>
       </c>
       <c r="C8">
-        <v>0.08728838184242059</v>
+        <v>1.613429594635641</v>
       </c>
       <c r="D8">
-        <v>0.02848284151107333</v>
+        <v>4.299938655358432</v>
       </c>
       <c r="E8">
-        <v>0.1687686034518071</v>
+        <v>2.073629343773479</v>
       </c>
       <c r="F8">
-        <v>0.1702578032675945</v>
+        <v>2.060668106634449</v>
       </c>
       <c r="G8">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01213854604790917</v>
+        <v>1.336347049941183</v>
       </c>
       <c r="C9">
-        <v>0.06507916646756993</v>
+        <v>1.610837625543729</v>
       </c>
       <c r="D9">
-        <v>0.009857748084655803</v>
+        <v>4.520735657440727</v>
       </c>
       <c r="E9">
-        <v>0.09928619281982667</v>
+        <v>2.12620216758443</v>
       </c>
       <c r="F9">
-        <v>0.1004928850012703</v>
+        <v>1.696718883006791</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01732080477741248</v>
+        <v>0.9801651346192841</v>
       </c>
       <c r="C10">
-        <v>0.02664954859114724</v>
+        <v>1.34337281173155</v>
       </c>
       <c r="D10">
-        <v>0.002677662977693536</v>
+        <v>2.87806734524593</v>
       </c>
       <c r="E10">
-        <v>0.05174613973711988</v>
+        <v>1.696486765420211</v>
       </c>
       <c r="F10">
-        <v>0.05017484053845725</v>
+        <v>1.441222499118803</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.8601837223604264</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.462038904411423</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3.55962077517264</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.886695729356655</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.877400043597129</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
